--- a/doc/KSZ_02v3.xlsx
+++ b/doc/KSZ_02v3.xlsx
@@ -379,18 +379,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -405,16 +399,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -718,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -760,601 +753,601 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="2">
         <v>2</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="2">
         <v>4</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="H3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="2">
         <v>5</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="H4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="2">
         <v>1</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="H5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="2">
         <v>4</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="H6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="H7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <v>2</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="2">
         <v>3</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2">
         <v>4</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="2">
         <v>3</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="H11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="2">
         <v>3</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="H12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="2">
         <v>2</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7" t="s">
+      <c r="H13" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="2">
         <v>1</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="2">
         <v>2</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="2">
         <v>2</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="2">
         <v>2</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="2">
         <v>5</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="H18" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="5">
         <v>4</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
+      <c r="H19" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="2">
         <v>2</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+      <c r="H20" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="2">
         <v>8</v>
       </c>
-      <c r="H21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+      <c r="H21" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="2">
         <v>10</v>
       </c>
-      <c r="H22" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
+      <c r="H22" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="2">
         <v>2</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
+    <row r="24" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="2">
         <v>1</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="3" t="s">
         <v>110</v>
       </c>
     </row>
